--- a/Lab2/DFS_Statistics.xlsx
+++ b/Lab2/DFS_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xisung/Desktop/StudyHard/AlgorithmandDiscretMath/AI_XiS/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F8A20C-47B9-1342-B680-3677EC967357}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5125C1A8-283C-B549-A6A6-9ADFC278B1B5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{5A68B2BF-77B5-B945-B9C9-462BAA82B2B8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{5A68B2BF-77B5-B945-B9C9-462BAA82B2B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Density of Wall and Mud</t>
   </si>
@@ -44,57 +44,12 @@
   <si>
     <t>Turn time</t>
   </si>
-  <si>
-    <t>10/42/18</t>
-  </si>
-  <si>
-    <t>0.00106287002563476/0.0013039112091064453/0.0011436939239501953</t>
-  </si>
-  <si>
-    <t>0.000158858299255371/0.0001825661886306036/0.00016495916578504775</t>
-  </si>
-  <si>
-    <t>30/52/28</t>
-  </si>
-  <si>
-    <t> 0.0012507438659667969/0.0022170543670654297/0.0011990070343017578</t>
-  </si>
-  <si>
-    <t>0.000198348363240559/0.00018433424142690806/0.0001675997461591448</t>
-  </si>
-  <si>
-    <t>118/86/104</t>
-  </si>
-  <si>
-    <t>0.000221587843814138/0.0002152864323105923/0.00021039293362544134</t>
-  </si>
-  <si>
-    <t>0.00249505043029785/0.0019083023071289062/0.001814126968383789</t>
-  </si>
-  <si>
-    <t>88/54/78</t>
-  </si>
-  <si>
-    <t>0.0028238296508789/0.001386880874633789/0.0030498504638671875</t>
-  </si>
-  <si>
-    <t>0.00020605596629056/0.00018325116899278428/0.00019823893522604919</t>
-  </si>
-  <si>
-    <t>106/236/214</t>
-  </si>
-  <si>
-    <t>0.00226688385009765/0.025295257568359375/0.0054128170013427734</t>
-  </si>
-  <si>
-    <t>0.000212896544978303/0.0002852981373415155/0.0002699477650294794</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +64,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9AFA42"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,10 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +414,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,7 +448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -496,94 +458,94 @@
       <c r="C2" s="2">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
+      <c r="D2" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.0718107223510701E-3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3.7090651056639201E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="D3" s="2">
+        <v>77.8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.8331527709960901E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.9156288117699001E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="D4" s="2">
+        <v>134.4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5.8815956115722597E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.7979368776116099E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>71</v>
+      </c>
+      <c r="D5" s="2">
+        <v>214.6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.36666774749755E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.1930736620502501E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2">
-        <v>51</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>91</v>
+      </c>
+      <c r="D6" s="3">
+        <v>338.6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.4599218368530198E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.72968160748879E-4</v>
       </c>
     </row>
   </sheetData>
